--- a/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_yyyymm/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_columns/test_columns_yyyymm/expected_result.xlsx
@@ -639,79 +639,77 @@
         </is>
       </c>
       <c r="B4" s="8" t="n">
-        <v>-3627.16</v>
+        <v>-3105.68</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>-2641.68</v>
+        <v>-146.3</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>-3784.4</v>
+        <v>-3712.55</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>-1503.54</v>
+        <v>-3054.75</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>-4616.84</v>
+        <v>-1790.51</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>-4342.86</v>
+        <v>-2040.45</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>-3064.84</v>
+        <v>-4181.66</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>-4751.98</v>
+        <v>-4518.96</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>-2407.91</v>
+        <v>-2686.92</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-4836.65</v>
+        <v>-3115.19</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>-3143.4</v>
+        <v>-4035.62</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>-3689.82</v>
+        <v>-5904.47</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>-2400.58</v>
-      </c>
-      <c r="O4" s="8" t="n">
-        <v>-2099.82</v>
-      </c>
+        <v>-3865.53</v>
+      </c>
+      <c r="O4" s="8" t="inlineStr"/>
       <c r="P4" s="8" t="n">
-        <v>-2777.74</v>
+        <v>-749.02</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>-4219.38</v>
+        <v>-5790.97</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>-3129.49</v>
+        <v>-1338.25</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>-3671.54</v>
+        <v>-4269.16</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>-1525.92</v>
+        <v>-2766.52</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>-9498.08</v>
+        <v>-2425.15</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>-1649.81</v>
+        <v>-4905.16</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>-1519.56</v>
+        <v>-1749.82</v>
       </c>
       <c r="X4" s="8" t="n">
-        <v>-5775.01</v>
+        <v>-1967.41</v>
       </c>
       <c r="Y4" s="8" t="n">
-        <v>-4367.79</v>
+        <v>-2127.08</v>
       </c>
       <c r="Z4" s="8" t="n">
-        <v>-85045.8</v>
+        <v>-70247.13</v>
       </c>
     </row>
     <row r="5">
@@ -721,79 +719,79 @@
         </is>
       </c>
       <c r="B5" s="8" t="n">
-        <v>-3622.62</v>
+        <v>-4826.34</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>-2592.78</v>
+        <v>-2639.33</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>-4536.23</v>
+        <v>-3018.89</v>
       </c>
       <c r="E5" s="8" t="n">
-        <v>-1998.82</v>
+        <v>-2416.87</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>-2912.58</v>
+        <v>-2223.36</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>-3310.26</v>
+        <v>-1574.37</v>
       </c>
       <c r="H5" s="8" t="n">
-        <v>-2048.57</v>
+        <v>-3896.58</v>
       </c>
       <c r="I5" s="8" t="n">
-        <v>-3358.24</v>
+        <v>-5491.9</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>-2567.27</v>
+        <v>-2642.31</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-441.61</v>
+        <v>-2215.6</v>
       </c>
       <c r="L5" s="8" t="n">
-        <v>-4570.27</v>
+        <v>-4605.03</v>
       </c>
       <c r="M5" s="8" t="n">
-        <v>-1955.55</v>
+        <v>-3268.83</v>
       </c>
       <c r="N5" s="8" t="n">
-        <v>-5445.14</v>
+        <v>-2129.77</v>
       </c>
       <c r="O5" s="8" t="n">
-        <v>-3476.49</v>
+        <v>-4427.59</v>
       </c>
       <c r="P5" s="8" t="n">
-        <v>-1037.42</v>
+        <v>-4021.79</v>
       </c>
       <c r="Q5" s="8" t="n">
-        <v>-473.59</v>
+        <v>-3562.04</v>
       </c>
       <c r="R5" s="8" t="n">
-        <v>-2804.87</v>
+        <v>-5754.01</v>
       </c>
       <c r="S5" s="8" t="n">
-        <v>-3598.86</v>
+        <v>-800.23</v>
       </c>
       <c r="T5" s="8" t="n">
-        <v>-3324.62</v>
+        <v>-2138.08</v>
       </c>
       <c r="U5" s="8" t="n">
-        <v>-836.83</v>
+        <v>-3594.87</v>
       </c>
       <c r="V5" s="8" t="n">
-        <v>-3922.45</v>
+        <v>-4849.86</v>
       </c>
       <c r="W5" s="8" t="n">
-        <v>-2278.98</v>
+        <v>-2576.66</v>
       </c>
       <c r="X5" s="8" t="n">
-        <v>-2877.12</v>
+        <v>-2616.12</v>
       </c>
       <c r="Y5" s="8" t="n">
-        <v>-2542.93</v>
+        <v>-2475.07</v>
       </c>
       <c r="Z5" s="8" t="n">
-        <v>-66534.10000000001</v>
+        <v>-77765.5</v>
       </c>
     </row>
     <row r="6">
@@ -803,79 +801,75 @@
         </is>
       </c>
       <c r="B6" s="8" t="n">
-        <v>-2479.61</v>
+        <v>-1358.42</v>
       </c>
       <c r="C6" s="8" t="n">
-        <v>-899.73</v>
+        <v>-440.1</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>-2674.38</v>
+        <v>-749.86</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>-858.51</v>
+        <v>-1555.01</v>
       </c>
       <c r="F6" s="8" t="n">
-        <v>-841.29</v>
+        <v>-180.29</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>-1621.09</v>
+        <v>-211.18</v>
       </c>
       <c r="H6" s="8" t="n">
-        <v>-1059.1</v>
+        <v>-1042.55</v>
       </c>
       <c r="I6" s="8" t="n">
-        <v>-488.64</v>
+        <v>-3922.16</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>-901.5599999999999</v>
+        <v>-2045.24</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-1739.65</v>
+        <v>-2789.62</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>-943.01</v>
+        <v>-60.54</v>
       </c>
       <c r="M6" s="8" t="n">
-        <v>-908.61</v>
+        <v>-1083.77</v>
       </c>
       <c r="N6" s="8" t="n">
-        <v>-1509.18</v>
+        <v>-958.0599999999999</v>
       </c>
       <c r="O6" s="8" t="n">
-        <v>-1739.5</v>
+        <v>-1319.77</v>
       </c>
       <c r="P6" s="8" t="n">
-        <v>-2594.71</v>
+        <v>-803.88</v>
       </c>
       <c r="Q6" s="8" t="n">
-        <v>-309.16</v>
+        <v>-1156.78</v>
       </c>
       <c r="R6" s="8" t="n">
-        <v>-1070.7</v>
-      </c>
-      <c r="S6" s="8" t="n">
-        <v>-2641.61</v>
-      </c>
+        <v>-1008.54</v>
+      </c>
+      <c r="S6" s="8" t="inlineStr"/>
       <c r="T6" s="8" t="n">
-        <v>-310.5</v>
+        <v>-2238.62</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>-185.27</v>
+        <v>-3379.73</v>
       </c>
       <c r="V6" s="8" t="n">
-        <v>-448.56</v>
-      </c>
-      <c r="W6" s="8" t="n">
-        <v>-1313.18</v>
-      </c>
+        <v>-3544.38</v>
+      </c>
+      <c r="W6" s="8" t="inlineStr"/>
       <c r="X6" s="8" t="n">
-        <v>-814.9299999999999</v>
+        <v>-190.59</v>
       </c>
       <c r="Y6" s="8" t="n">
-        <v>-465.73</v>
+        <v>-407.8</v>
       </c>
       <c r="Z6" s="8" t="n">
-        <v>-28818.21</v>
+        <v>-30446.89</v>
       </c>
     </row>
     <row r="7">
@@ -885,79 +879,79 @@
         </is>
       </c>
       <c r="B7" s="8" t="n">
-        <v>-2439.11</v>
+        <v>-3983.31</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>-2108.38</v>
+        <v>-3028.4</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>-2899.15</v>
+        <v>-1627.97</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>-1098.89</v>
+        <v>-6414.87</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>-1731.32</v>
+        <v>-2669.13</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>-3754.72</v>
+        <v>-2775.83</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>-4493.62</v>
+        <v>-1135.31</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>-1061.16</v>
+        <v>-1235.7</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>-3547.46</v>
+        <v>-761.67</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-3535.24</v>
+        <v>-2445.23</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>-3579.2</v>
+        <v>-872.38</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>-3032.38</v>
+        <v>-4217.25</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>-2365.98</v>
+        <v>-4137.41</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>-2281.66</v>
+        <v>-2178.44</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>-1881.18</v>
+        <v>-4309.05</v>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>-3737.33</v>
+        <v>-3071.57</v>
       </c>
       <c r="R7" s="8" t="n">
-        <v>-4712.67</v>
+        <v>-3371.08</v>
       </c>
       <c r="S7" s="8" t="n">
-        <v>-718.5700000000001</v>
+        <v>-4151.35</v>
       </c>
       <c r="T7" s="8" t="n">
-        <v>-4495.45</v>
+        <v>-3343.77</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>-5032.36</v>
+        <v>-3395.33</v>
       </c>
       <c r="V7" s="8" t="n">
-        <v>-1234.42</v>
+        <v>-3555.93</v>
       </c>
       <c r="W7" s="8" t="n">
-        <v>-2347.94</v>
+        <v>-873.65</v>
       </c>
       <c r="X7" s="8" t="n">
-        <v>-4776.64</v>
+        <v>-1850.57</v>
       </c>
       <c r="Y7" s="8" t="n">
-        <v>-2344.97</v>
+        <v>-3554.36</v>
       </c>
       <c r="Z7" s="8" t="n">
-        <v>-69209.8</v>
+        <v>-68959.56</v>
       </c>
     </row>
     <row r="8">
@@ -966,72 +960,72 @@
           <t>Rent</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
-        <v>-878.87</v>
-      </c>
-      <c r="C8" s="8" t="inlineStr"/>
+      <c r="B8" s="8" t="inlineStr"/>
+      <c r="C8" s="8" t="n">
+        <v>-532.13</v>
+      </c>
       <c r="D8" s="8" t="n">
-        <v>-1681.35</v>
+        <v>-214.07</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>-315.24</v>
-      </c>
-      <c r="F8" s="8" t="inlineStr"/>
+        <v>-2470.26</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>-4075.11</v>
+      </c>
       <c r="G8" s="8" t="n">
-        <v>-1551.17</v>
+        <v>-2366.48</v>
       </c>
       <c r="H8" s="8" t="n">
-        <v>-983.71</v>
+        <v>-1762.6</v>
       </c>
       <c r="I8" s="8" t="n">
-        <v>-288.87</v>
+        <v>-2865.75</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>-1718.19</v>
+        <v>-705.02</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-682.59</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>-2934.91</v>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>-297.72</v>
-      </c>
-      <c r="N8" s="8" t="n">
-        <v>-1671.38</v>
-      </c>
-      <c r="O8" s="8" t="inlineStr"/>
+        <v>-1140.66</v>
+      </c>
+      <c r="L8" s="8" t="inlineStr"/>
+      <c r="M8" s="8" t="inlineStr"/>
+      <c r="N8" s="8" t="inlineStr"/>
+      <c r="O8" s="8" t="n">
+        <v>-2194</v>
+      </c>
       <c r="P8" s="8" t="n">
-        <v>-2969.66</v>
+        <v>-1654.62</v>
       </c>
       <c r="Q8" s="8" t="n">
-        <v>-1828.15</v>
+        <v>-2074.53</v>
       </c>
       <c r="R8" s="8" t="n">
-        <v>-2517.36</v>
-      </c>
-      <c r="S8" s="8" t="inlineStr"/>
+        <v>-765.97</v>
+      </c>
+      <c r="S8" s="8" t="n">
+        <v>-4682.21</v>
+      </c>
       <c r="T8" s="8" t="n">
-        <v>-490.31</v>
+        <v>-684.1799999999999</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>-1437.45</v>
+        <v>-1584.88</v>
       </c>
       <c r="V8" s="8" t="n">
-        <v>-1592.75</v>
+        <v>-1437.23</v>
       </c>
       <c r="W8" s="8" t="n">
-        <v>-981.35</v>
+        <v>-2007.79</v>
       </c>
       <c r="X8" s="8" t="n">
-        <v>-1858.3</v>
+        <v>-48.04</v>
       </c>
       <c r="Y8" s="8" t="n">
-        <v>-2131.88</v>
+        <v>-1486.74</v>
       </c>
       <c r="Z8" s="8" t="n">
-        <v>-28811.21</v>
+        <v>-34752.27</v>
       </c>
     </row>
     <row r="9">
@@ -1041,79 +1035,79 @@
         </is>
       </c>
       <c r="B9" s="8" t="n">
-        <v>-6480.62</v>
+        <v>-5615.31</v>
       </c>
       <c r="C9" s="8" t="n">
-        <v>-6296.95</v>
+        <v>-4276.73</v>
       </c>
       <c r="D9" s="8" t="n">
-        <v>-3087.43</v>
+        <v>-2180.54</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>-2776.24</v>
+        <v>-3693.87</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>-4453.19</v>
+        <v>-3652.87</v>
       </c>
       <c r="G9" s="8" t="n">
-        <v>-1869.97</v>
+        <v>-2784.62</v>
       </c>
       <c r="H9" s="8" t="n">
-        <v>-4031.15</v>
+        <v>-4687.37</v>
       </c>
       <c r="I9" s="8" t="n">
-        <v>-5584.14</v>
+        <v>-5621.78</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>-3327.25</v>
+        <v>-3490</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-2564.07</v>
+        <v>-8178.43</v>
       </c>
       <c r="L9" s="8" t="n">
-        <v>-2831.76</v>
+        <v>-4563.68</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>-6868.86</v>
+        <v>-5282.9</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>-3412.53</v>
+        <v>-6180.82</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>-3662.02</v>
+        <v>-5229.73</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>-7412.07</v>
+        <v>-7761.23</v>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>-2747.99</v>
+        <v>-4276.43</v>
       </c>
       <c r="R9" s="8" t="n">
-        <v>-5635.48</v>
+        <v>-3012.77</v>
       </c>
       <c r="S9" s="8" t="n">
-        <v>-3668.93</v>
+        <v>-5888.13</v>
       </c>
       <c r="T9" s="8" t="n">
-        <v>-5382.38</v>
+        <v>-10311.62</v>
       </c>
       <c r="U9" s="8" t="n">
-        <v>-5117.79</v>
+        <v>-5128.16</v>
       </c>
       <c r="V9" s="8" t="n">
-        <v>-3716.68</v>
+        <v>-5986.23</v>
       </c>
       <c r="W9" s="8" t="n">
-        <v>-6151.32</v>
+        <v>-4420.39</v>
       </c>
       <c r="X9" s="8" t="n">
-        <v>-1140.85</v>
+        <v>-5800.75</v>
       </c>
       <c r="Y9" s="8" t="n">
-        <v>-3159.45</v>
+        <v>-9447.82</v>
       </c>
       <c r="Z9" s="8" t="n">
-        <v>-101379.12</v>
+        <v>-127472.18</v>
       </c>
     </row>
     <row r="10">
@@ -1123,79 +1117,79 @@
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>-3985.72</v>
+        <v>-2368.8</v>
       </c>
       <c r="C10" s="8" t="n">
-        <v>-2411.59</v>
+        <v>-1628.42</v>
       </c>
       <c r="D10" s="8" t="n">
-        <v>-5060.44</v>
+        <v>-4516.95</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>-156.75</v>
+        <v>-1574.78</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>-4922.03</v>
+        <v>-938.27</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>-807.09</v>
+        <v>-2642.03</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>-2836.15</v>
+        <v>-1076.51</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>-1507.3</v>
+        <v>-1814.46</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>-3483.67</v>
+        <v>-4600.93</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-1798.67</v>
+        <v>-443.17</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>-2685.45</v>
+        <v>-1855.42</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>-505.17</v>
+        <v>-4184.69</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>-1558.37</v>
+        <v>-2055.3</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>-487.85</v>
+        <v>-3698.58</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>-1477.05</v>
+        <v>-827.59</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>-1980.31</v>
+        <v>-2227.42</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>-3512.75</v>
+        <v>-3765.38</v>
       </c>
       <c r="S10" s="8" t="n">
-        <v>-1431.14</v>
+        <v>-1564.3</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>-1812.45</v>
+        <v>-3714.51</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>-1032.22</v>
+        <v>-2967.24</v>
       </c>
       <c r="V10" s="8" t="n">
-        <v>-828.23</v>
+        <v>-3148.61</v>
       </c>
       <c r="W10" s="8" t="n">
-        <v>-1084.64</v>
+        <v>-1744.46</v>
       </c>
       <c r="X10" s="8" t="n">
-        <v>-3266.41</v>
+        <v>-752.22</v>
       </c>
       <c r="Y10" s="8" t="n">
-        <v>-3572.79</v>
+        <v>-3464.47</v>
       </c>
       <c r="Z10" s="8" t="n">
-        <v>-52204.24</v>
+        <v>-57574.51</v>
       </c>
     </row>
     <row r="11">
@@ -1205,77 +1199,77 @@
         </is>
       </c>
       <c r="B11" s="8" t="n">
-        <v>-965.9400000000001</v>
+        <v>-1112.56</v>
       </c>
       <c r="C11" s="8" t="n">
-        <v>-1827.53</v>
+        <v>-507.24</v>
       </c>
       <c r="D11" s="8" t="n">
-        <v>-1148.43</v>
+        <v>-1874.77</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>-1880.92</v>
+        <v>-2886.89</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>-1557.09</v>
+        <v>-1493.62</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>-1470.41</v>
-      </c>
-      <c r="H11" s="8" t="n">
-        <v>-2838.57</v>
-      </c>
+        <v>-673.47</v>
+      </c>
+      <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="8" t="n">
-        <v>-500.56</v>
+        <v>-1331.05</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>-47.05</v>
+        <v>-909.25</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-5147.82</v>
+        <v>-507.23</v>
       </c>
       <c r="L11" s="8" t="n">
-        <v>-1306.48</v>
+        <v>-1471.6</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>-1739.71</v>
+        <v>-2861.88</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>-2811.12</v>
+        <v>-509.51</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>-1823.95</v>
+        <v>-1534.47</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>-985.17</v>
+        <v>-158.19</v>
       </c>
       <c r="Q11" s="8" t="n">
-        <v>-693.2</v>
+        <v>-3989.94</v>
       </c>
       <c r="R11" s="8" t="n">
-        <v>-1818.77</v>
+        <v>-868.91</v>
       </c>
       <c r="S11" s="8" t="n">
-        <v>-1341.84</v>
+        <v>-1273.64</v>
       </c>
       <c r="T11" s="8" t="n">
-        <v>-542.61</v>
+        <v>-1346.51</v>
       </c>
       <c r="U11" s="8" t="n">
-        <v>-3696.49</v>
-      </c>
-      <c r="V11" s="8" t="inlineStr"/>
+        <v>-2356.26</v>
+      </c>
+      <c r="V11" s="8" t="n">
+        <v>-891.23</v>
+      </c>
       <c r="W11" s="8" t="n">
-        <v>-1312.12</v>
+        <v>-3241.24</v>
       </c>
       <c r="X11" s="8" t="n">
-        <v>-1510.98</v>
+        <v>-1142.46</v>
       </c>
       <c r="Y11" s="8" t="n">
-        <v>-1422.99</v>
+        <v>-2595.31</v>
       </c>
       <c r="Z11" s="8" t="n">
-        <v>-38389.75</v>
+        <v>-35537.23</v>
       </c>
     </row>
     <row r="12">
@@ -1285,79 +1279,79 @@
         </is>
       </c>
       <c r="B12" s="9" t="n">
-        <v>-24479.65</v>
+        <v>-22370.42</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>-18778.64</v>
+        <v>-13198.65</v>
       </c>
       <c r="D12" s="9" t="n">
-        <v>-24871.81</v>
+        <v>-17895.6</v>
       </c>
       <c r="E12" s="9" t="n">
-        <v>-10588.91</v>
+        <v>-24067.3</v>
       </c>
       <c r="F12" s="9" t="n">
-        <v>-21034.34</v>
+        <v>-17023.16</v>
       </c>
       <c r="G12" s="9" t="n">
-        <v>-18727.57</v>
+        <v>-15068.43</v>
       </c>
       <c r="H12" s="9" t="n">
-        <v>-21355.71</v>
+        <v>-17782.58</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>-17540.89</v>
+        <v>-26801.76</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>-18000.36</v>
+        <v>-17841.34</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>-20746.3</v>
+        <v>-20835.13</v>
       </c>
       <c r="L12" s="9" t="n">
-        <v>-21994.48</v>
+        <v>-17464.27</v>
       </c>
       <c r="M12" s="9" t="n">
-        <v>-18997.82</v>
+        <v>-26803.79</v>
       </c>
       <c r="N12" s="9" t="n">
-        <v>-21174.28</v>
+        <v>-19836.4</v>
       </c>
       <c r="O12" s="9" t="n">
-        <v>-15571.29</v>
+        <v>-20582.58</v>
       </c>
       <c r="P12" s="9" t="n">
-        <v>-21135</v>
+        <v>-20285.37</v>
       </c>
       <c r="Q12" s="9" t="n">
-        <v>-15989.11</v>
+        <v>-26149.68</v>
       </c>
       <c r="R12" s="9" t="n">
-        <v>-25202.09</v>
+        <v>-19884.91</v>
       </c>
       <c r="S12" s="9" t="n">
-        <v>-17072.49</v>
+        <v>-22629.02</v>
       </c>
       <c r="T12" s="9" t="n">
-        <v>-17884.24</v>
+        <v>-26543.81</v>
       </c>
       <c r="U12" s="9" t="n">
-        <v>-26836.49</v>
+        <v>-24831.62</v>
       </c>
       <c r="V12" s="9" t="n">
-        <v>-13392.9</v>
+        <v>-28318.63</v>
       </c>
       <c r="W12" s="9" t="n">
-        <v>-16989.09</v>
+        <v>-16614.01</v>
       </c>
       <c r="X12" s="9" t="n">
-        <v>-22020.24</v>
+        <v>-14368.16</v>
       </c>
       <c r="Y12" s="9" t="n">
-        <v>-20008.53</v>
+        <v>-25558.65</v>
       </c>
       <c r="Z12" s="9" t="n">
-        <v>-470392.23</v>
+        <v>-502755.27</v>
       </c>
     </row>
   </sheetData>
